--- a/sputnik/personal/ee/8ee.xlsx
+++ b/sputnik/personal/ee/8ee.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,16 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>к доплате</t>
-  </si>
-  <si>
     <t>оплачено</t>
   </si>
   <si>
-    <t>оплачено без данных</t>
-  </si>
-  <si>
-    <t>нет данных</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +72,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -97,6 +90,29 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,11 +145,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -142,32 +171,31 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D10" sqref="D10:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -487,456 +515,475 @@
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>43822</v>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>42403</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12">
-        <v>26141</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="C2" s="2">
+        <v>24272</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
-        <v>13879</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>43771</v>
+      <c r="C3" s="2">
+        <v>12918</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43543</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12">
-        <v>26141</v>
-      </c>
-      <c r="D4" s="12">
-        <f>SUM(C4,-C10)</f>
-        <v>173</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="5">
-        <f>D4*E4</f>
-        <v>776.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>25343</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D7" si="0">SUM(C4,-C2)</f>
+        <v>1071</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>4894.47</v>
+      </c>
+      <c r="G4" s="9">
+        <f>SUM(F4,F5)</f>
+        <v>6218.5300000000007</v>
+      </c>
+      <c r="H4" s="9">
+        <v>6076.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
-        <v>13879</v>
-      </c>
-      <c r="D5" s="12">
-        <f>SUM(C5,-C11)</f>
-        <v>81</v>
+      <c r="C5" s="2">
+        <v>13472</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>554</v>
       </c>
       <c r="E5" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="5">
-        <f>D5*E5</f>
-        <v>196.83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>43775</v>
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>1324.0600000000002</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>43621</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5">
-        <v>473.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="C6" s="2">
+        <v>25843</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>2285</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(F6,F7)</f>
+        <v>3002</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43720</v>
+      <c r="C7" s="2">
+        <v>13772</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>717</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>43671</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>25968</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C6)</f>
+        <v>125</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>561.25</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>624.43000000000006</v>
+      </c>
+      <c r="H8" s="9">
+        <v>816.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43671</v>
+      <c r="C9" s="2">
+        <v>13798</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C7)</f>
+        <v>26</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>63.180000000000007</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>856.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43720</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
-        <v>25968</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUM(C10,-C14)</f>
-        <v>125</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="5">
-        <f>D10*E10</f>
-        <v>561.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7">
+        <v>500</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>500</v>
+      </c>
+      <c r="H10" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
-        <v>13798</v>
-      </c>
-      <c r="D11" s="2">
-        <f>SUM(C11,-C15)</f>
-        <v>26</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="5">
-        <f>D11*E11</f>
-        <v>63.180000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43671</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43775</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="5">
-        <v>192.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>43621</v>
+      <c r="F12" s="7">
+        <v>473.6</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>473.6</v>
+      </c>
+      <c r="H12" s="9">
+        <v>473.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43822</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
-        <v>25843</v>
-      </c>
-      <c r="D14" s="2">
-        <f>SUM(C14,-C17)</f>
-        <v>500</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="5">
-        <f>D14*E14</f>
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="11">
+        <v>26141</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>3000</v>
+      </c>
+      <c r="H14" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <v>13772</v>
-      </c>
-      <c r="D15" s="2">
-        <f>SUM(C15,-C18)</f>
-        <v>300</v>
+      <c r="C15" s="11">
+        <v>13879</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="5">
-        <f>D15*E15</f>
-        <v>717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11">
-        <v>142.13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>43543</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>2030</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>25343</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" ref="D17:D22" si="0">SUM(C17,-C19)</f>
-        <v>1071</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F17" s="5">
-        <f>D17*E17</f>
-        <v>4894.47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="7">
+        <v>530</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43893</v>
+      </c>
       <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>1200</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2">
-        <v>13472</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>554</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F18" s="5">
-        <f>D18*E18</f>
-        <v>1324.0600000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>43499</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>24272</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>397</v>
-      </c>
-      <c r="E19" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" ref="F19:F24" si="1">D19*E19</f>
-        <v>1786.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>12918</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="1"/>
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>43386</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>23875</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="E21" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>12914</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="1"/>
-        <v>368.95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>43337</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>23735</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>12757</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(G2:G18)</f>
+        <v>17048.560000000001</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H2:H18)</f>
+        <v>17908.199999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <f>SUM(H20,-G20)</f>
+        <v>859.63999999999578</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/8ee.xlsx
+++ b/sputnik/personal/ee/8ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>всего начислено к оплате</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -162,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,7 +177,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,7 +500,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -526,28 +519,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -564,8 +557,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -578,8 +571,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -602,11 +595,11 @@
         <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>4894.47</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
         <v>6218.5300000000007</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>6076.4</v>
       </c>
     </row>
@@ -629,8 +622,8 @@
         <f t="shared" si="1"/>
         <v>1324.0600000000002</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -653,11 +646,11 @@
         <f t="shared" si="1"/>
         <v>2285</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
         <v>3002</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>2955</v>
       </c>
     </row>
@@ -680,8 +673,8 @@
         <f t="shared" si="1"/>
         <v>717</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -704,11 +697,11 @@
         <f t="shared" si="1"/>
         <v>561.25</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
         <v>624.43000000000006</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>816.56</v>
       </c>
     </row>
@@ -731,8 +724,8 @@
         <f t="shared" si="1"/>
         <v>63.180000000000007</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
         <v>856.64</v>
       </c>
     </row>
@@ -743,21 +736,21 @@
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
         <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>500</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
         <v>500</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>500</v>
       </c>
     </row>
@@ -766,16 +759,16 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
         <v>0</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -784,21 +777,21 @@
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>473.6</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
         <v>473.6</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>473.6</v>
       </c>
     </row>
@@ -807,16 +800,16 @@
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
         <v>0</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -825,10 +818,10 @@
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>26141</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0</v>
       </c>
       <c r="E14" s="4">
@@ -837,11 +830,11 @@
       <c r="F14" s="7">
         <v>3000</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
         <v>3000</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>3000</v>
       </c>
     </row>
@@ -850,18 +843,18 @@
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>13879</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -870,10 +863,10 @@
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
         <v>0</v>
       </c>
       <c r="E16" s="4">
@@ -882,11 +875,11 @@
       <c r="F16" s="7">
         <v>1500</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
         <v>2030</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>1500</v>
       </c>
     </row>
@@ -895,10 +888,10 @@
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
         <v>0</v>
       </c>
       <c r="E17" s="2">
@@ -907,8 +900,8 @@
       <c r="F17" s="7">
         <v>530</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
         <v>530</v>
       </c>
     </row>
@@ -919,10 +912,10 @@
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="4">
@@ -931,11 +924,11 @@
       <c r="F18" s="7">
         <v>1200</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f>SUM(F18,F19)</f>
         <v>1200</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>1200</v>
       </c>
     </row>
@@ -944,41 +937,63 @@
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="10">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="9">
-        <f>SUM(G2:G18)</f>
-        <v>17048.560000000001</v>
-      </c>
-      <c r="H20" s="9">
-        <f>SUM(H2:H18)</f>
-        <v>17908.199999999997</v>
+      <c r="A20" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>28731</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="7">
+        <v>8468.19</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>8468.19</v>
+      </c>
+      <c r="H20" s="8">
+        <v>8468.19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9">
-        <f>SUM(H20,-G20)</f>
-        <v>859.63999999999578</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>15142</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/8ee.xlsx
+++ b/sputnik/personal/ee/8ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -497,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -994,6 +994,57 @@
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>29027</v>
+      </c>
+      <c r="D22" s="9">
+        <f>SUM(C22,-C20)</f>
+        <v>296</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="7">
+        <f>PRODUCT(D22,E22)</f>
+        <v>1394.16</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(F22,F23)</f>
+        <v>1820.01</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1820.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>15309</v>
+      </c>
+      <c r="D23" s="9">
+        <f>SUM(C23,-C21)</f>
+        <v>167</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="7">
+        <f>PRODUCT(D23,E23)</f>
+        <v>425.84999999999997</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/8ee.xlsx
+++ b/sputnik/personal/ee/8ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -497,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1045,6 +1045,104 @@
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44076</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>29242</v>
+      </c>
+      <c r="D24" s="9">
+        <f>SUM(C24,-C22)</f>
+        <v>215</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="7">
+        <f>PRODUCT(D24,E24)</f>
+        <v>1012.65</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(F24,F25)</f>
+        <v>1321.1999999999998</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1321.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>15430</v>
+      </c>
+      <c r="D25" s="9">
+        <f>SUM(C25,-C23)</f>
+        <v>121</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="7">
+        <f>PRODUCT(D25,E25)</f>
+        <v>308.54999999999995</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>29376</v>
+      </c>
+      <c r="D26" s="9">
+        <f>SUM(C26,-C24)</f>
+        <v>134</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="7">
+        <f>PRODUCT(D26,E26)</f>
+        <v>631.14</v>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(F26,F27)</f>
+        <v>702.54</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
+        <v>15458</v>
+      </c>
+      <c r="D27" s="9">
+        <f>SUM(C27,-C25)</f>
+        <v>28</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="7">
+        <f>PRODUCT(D27,E27)</f>
+        <v>71.399999999999991</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/8ee.xlsx
+++ b/sputnik/personal/ee/8ee.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1006,14 +1006,14 @@
         <v>29027</v>
       </c>
       <c r="D22" s="9">
-        <f>SUM(C22,-C20)</f>
+        <f t="shared" ref="D22:D27" si="2">SUM(C22,-C20)</f>
         <v>296</v>
       </c>
       <c r="E22" s="4">
         <v>4.71</v>
       </c>
       <c r="F22" s="7">
-        <f>PRODUCT(D22,E22)</f>
+        <f t="shared" ref="F22:F27" si="3">PRODUCT(D22,E22)</f>
         <v>1394.16</v>
       </c>
       <c r="G22" s="8">
@@ -1033,14 +1033,14 @@
         <v>15309</v>
       </c>
       <c r="D23" s="9">
-        <f>SUM(C23,-C21)</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="7">
-        <f>PRODUCT(D23,E23)</f>
+        <f t="shared" si="3"/>
         <v>425.84999999999997</v>
       </c>
       <c r="G23" s="8"/>
@@ -1057,14 +1057,14 @@
         <v>29242</v>
       </c>
       <c r="D24" s="9">
-        <f>SUM(C24,-C22)</f>
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
       <c r="E24" s="4">
         <v>4.71</v>
       </c>
       <c r="F24" s="7">
-        <f>PRODUCT(D24,E24)</f>
+        <f t="shared" si="3"/>
         <v>1012.65</v>
       </c>
       <c r="G24" s="8">
@@ -1084,21 +1084,23 @@
         <v>15430</v>
       </c>
       <c r="D25" s="9">
-        <f>SUM(C25,-C23)</f>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="E25" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="7">
-        <f>PRODUCT(D25,E25)</f>
+        <f t="shared" si="3"/>
         <v>308.54999999999995</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3">
+        <v>44110</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1106,21 +1108,23 @@
         <v>29376</v>
       </c>
       <c r="D26" s="9">
-        <f>SUM(C26,-C24)</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="E26" s="4">
         <v>4.71</v>
       </c>
       <c r="F26" s="7">
-        <f>PRODUCT(D26,E26)</f>
+        <f t="shared" si="3"/>
         <v>631.14</v>
       </c>
       <c r="G26" s="8">
         <f>SUM(F26,F27)</f>
         <v>702.54</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8">
+        <v>702.54</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1131,14 +1135,14 @@
         <v>15458</v>
       </c>
       <c r="D27" s="9">
-        <f>SUM(C27,-C25)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E27" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="7">
-        <f>PRODUCT(D27,E27)</f>
+        <f t="shared" si="3"/>
         <v>71.399999999999991</v>
       </c>
       <c r="G27" s="8"/>

--- a/sputnik/personal/ee/8ee.xlsx
+++ b/sputnik/personal/ee/8ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -475,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
         <v>4.71</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F2:F7" si="1">PRODUCT(D4,E4)</f>
+        <f t="shared" ref="F4:F7" si="1">PRODUCT(D4,E4)</f>
         <v>1012.65</v>
       </c>
       <c r="G4" s="6">
@@ -653,6 +653,108 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>31376</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
+        <v>2000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F9" si="3">PRODUCT(D8,E8)</f>
+        <v>9420</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(F8,F9)</f>
+        <v>11822.1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>11822.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>16400</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="2"/>
+        <v>942</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="3"/>
+        <v>2402.1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>31876</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
+        <v>500</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="5">PRODUCT(D10,E10)</f>
+        <v>2355</v>
+      </c>
+      <c r="G10" s="6">
+        <f>SUM(F10,F11)</f>
+        <v>2865</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>16600</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="5"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/8ee.xlsx
+++ b/sputnik/personal/ee/8ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -475,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -755,6 +755,57 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44340</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>32957</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
+        <v>1081</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="7">PRODUCT(D12,E12)</f>
+        <v>5091.51</v>
+      </c>
+      <c r="G12" s="6">
+        <f>SUM(F12,F13)</f>
+        <v>6736.26</v>
+      </c>
+      <c r="H12" s="6">
+        <v>8468.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>17245</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="6"/>
+        <v>645</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="7"/>
+        <v>1644.7499999999998</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/8ee.xlsx
+++ b/sputnik/personal/ee/8ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -475,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -806,6 +806,57 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44377</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>33877</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" ref="D14:D15" si="8">SUM(C14,-C12)</f>
+        <v>920</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="9">PRODUCT(D14,E14)</f>
+        <v>4333.2</v>
+      </c>
+      <c r="G14" s="6">
+        <f>SUM(F14,F15)</f>
+        <v>4715.7</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>17395</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="9"/>
+        <v>382.5</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/8ee.xlsx
+++ b/sputnik/personal/ee/8ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -95,12 +95,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -143,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -167,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,20 +532,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44020</v>
+      <c r="A2" s="10">
+        <v>44377</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7">
-        <v>29027</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+        <v>33877</v>
+      </c>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>920</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F5" si="1">PRODUCT(D2,E2)</f>
+        <v>4333.2</v>
+      </c>
+      <c r="G2" s="6">
+        <f>SUM(F2,F3)</f>
+        <v>4715.7</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3000</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -544,41 +566,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="7">
-        <v>15309</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
+        <v>17395</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="1"/>
+        <v>382.5</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44076</v>
+        <v>44340</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>29242</v>
+        <v>32957</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D7" si="0">SUM(C4,-C2)</f>
-        <v>215</v>
+        <f>SUM(C4,-C6)</f>
+        <v>1081</v>
       </c>
       <c r="E4" s="4">
         <v>4.71</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F7" si="1">PRODUCT(D4,E4)</f>
-        <v>1012.65</v>
+        <f t="shared" si="1"/>
+        <v>5091.51</v>
       </c>
       <c r="G4" s="6">
         <f>SUM(F4,F5)</f>
-        <v>1321.1999999999998</v>
+        <v>6736.26</v>
       </c>
       <c r="H4" s="6">
-        <v>1321.2</v>
+        <v>8468.19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -587,50 +617,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>15430</v>
+        <v>17245</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>121</v>
+        <f>SUM(C5,-C7)</f>
+        <v>645</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>308.54999999999995</v>
+        <v>1644.7499999999998</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44110</v>
+        <v>44251</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>29376</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>631.14</v>
-      </c>
-      <c r="G6" s="6">
-        <f>SUM(F6,F7)</f>
-        <v>702.54</v>
-      </c>
-      <c r="H6" s="6">
-        <v>702.54</v>
-      </c>
+        <v>31876</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -638,225 +655,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>15458</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>71.399999999999991</v>
-      </c>
+        <v>16600</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44235</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>31376</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>2000</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F9" si="3">PRODUCT(D8,E8)</f>
-        <v>9420</v>
-      </c>
-      <c r="G8" s="6">
-        <f>SUM(F8,F9)</f>
-        <v>11822.1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>11822.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>16400</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="2"/>
-        <v>942</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="3"/>
-        <v>2402.1</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44251</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>31876</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
-        <v>500</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F11" si="5">PRODUCT(D10,E10)</f>
-        <v>2355</v>
-      </c>
-      <c r="G10" s="6">
-        <f>SUM(F10,F11)</f>
-        <v>2865</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>16600</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="5"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44340</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>32957</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
-        <v>1081</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="7">PRODUCT(D12,E12)</f>
-        <v>5091.51</v>
-      </c>
-      <c r="G12" s="6">
-        <f>SUM(F12,F13)</f>
-        <v>6736.26</v>
-      </c>
-      <c r="H12" s="6">
-        <v>8468.19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>17245</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="6"/>
-        <v>645</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="7"/>
-        <v>1644.7499999999998</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44377</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>33877</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" ref="D14:D15" si="8">SUM(C14,-C12)</f>
-        <v>920</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="9">PRODUCT(D14,E14)</f>
-        <v>4333.2</v>
-      </c>
-      <c r="G14" s="6">
-        <f>SUM(F14,F15)</f>
-        <v>4715.7</v>
-      </c>
-      <c r="H14" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>17395</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="8"/>
-        <v>150</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="9"/>
-        <v>382.5</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/8ee.xlsx
+++ b/sputnik/personal/ee/8ee.xlsx
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,6 +177,7 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,10 +485,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -662,6 +663,22 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="11">
+        <f>SUM(G2:G7)</f>
+        <v>11451.96</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SUM(H2:H7)</f>
+        <v>11468.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="11">
+        <f>SUM(H8,-G8)</f>
+        <v>16.230000000001382</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
